--- a/Code/TFGCode/time_training.xlsx
+++ b/Code/TFGCode/time_training.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel Marin\Desktop\TFG\Code\TFGCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3845766-5ACD-488C-AEA1-704040B3852B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5730EE3A-0F95-4873-BA87-2D0A1D2C3707}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="3015" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="32">
   <si>
     <t>Autoencoder</t>
   </si>
@@ -110,13 +110,19 @@
   </si>
   <si>
     <t>~</t>
+  </si>
+  <si>
+    <t>Tiempo Total</t>
+  </si>
+  <si>
+    <t>Nº Epochs</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -137,6 +143,18 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -146,7 +164,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -169,62 +187,28 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -527,162 +511,304 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S18"/>
+  <dimension ref="A1:S21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S18" sqref="S18"/>
+      <selection activeCell="R8" sqref="R8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="20.7109375" customWidth="1"/>
     <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" customWidth="1"/>
     <col min="6" max="6" width="14" customWidth="1"/>
+    <col min="8" max="8" width="13.140625" customWidth="1"/>
+    <col min="9" max="9" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="5"/>
       <c r="B1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="6"/>
+      <c r="E1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="6"/>
+      <c r="G1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="6">
+      <c r="A2" s="4"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I2" s="5"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="4"/>
+      <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="5" t="s">
+      <c r="C3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D3" s="2">
+        <v>25</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="F3" s="2">
+        <v>30</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="6">
+      <c r="H3" s="2">
+        <v>40</v>
+      </c>
+      <c r="I3" s="5"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="4"/>
+      <c r="B4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="2">
+        <v>500</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" s="2"/>
+      <c r="I4" s="5"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="4"/>
+      <c r="B5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="2">
+        <v>100</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5" s="2"/>
+      <c r="I5" s="5"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="4"/>
+      <c r="B6" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="5" t="s">
+      <c r="C6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="8">
         <v>13</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="6">
+      <c r="E6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="2">
+        <v>38</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" s="2">
+        <v>50</v>
+      </c>
+      <c r="I6" s="5"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="5"/>
+      <c r="B7" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="6">
+      <c r="C7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="8">
+        <v>13</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="2">
+        <v>25</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H7" s="2">
+        <v>50</v>
+      </c>
+      <c r="I7" s="5"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="5"/>
+      <c r="B8" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="6">
-        <v>4</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="5" t="s">
+      <c r="C8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="8">
         <v>19</v>
       </c>
-      <c r="E6" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B7" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="5" t="s">
+      <c r="E8" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="F8" s="8">
+        <v>25</v>
+      </c>
+      <c r="G8" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B8" s="5" t="s">
+      <c r="H8" s="2">
+        <v>50</v>
+      </c>
+      <c r="I8" s="5"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="5"/>
+      <c r="B9" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C9" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D9" s="2"/>
+      <c r="E9" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="F9" s="2"/>
+      <c r="G9" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="H9" s="2"/>
+      <c r="I9" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S18" s="7"/>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F16" s="5"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+    </row>
+    <row r="17" spans="6:19" x14ac:dyDescent="0.25">
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+    </row>
+    <row r="18" spans="6:19" x14ac:dyDescent="0.25">
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="S18" s="3"/>
+    </row>
+    <row r="19" spans="6:19" x14ac:dyDescent="0.25">
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+    </row>
+    <row r="20" spans="6:19" x14ac:dyDescent="0.25">
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+    </row>
+    <row r="21" spans="6:19" x14ac:dyDescent="0.25">
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
